--- a/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL MIS.xlsx
@@ -466,7 +466,7 @@
         <v>569158</v>
       </c>
       <c r="D2" t="n">
-        <v>5.343356211495236</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>266418</v>
       </c>
       <c r="D3" t="n">
-        <v>1.523460729115686</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>195378</v>
       </c>
       <c r="D4" t="n">
-        <v>1.846571912557905</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL MIS.xlsx
@@ -463,10 +463,10 @@
         <v>10651694.88</v>
       </c>
       <c r="C2" t="n">
-        <v>569158</v>
+        <v>575058</v>
       </c>
       <c r="D2" t="n">
-        <v>5.34</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3">
@@ -491,10 +491,10 @@
         <v>10580579</v>
       </c>
       <c r="C4" t="n">
-        <v>195378</v>
+        <v>197878</v>
       </c>
       <c r="D4" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
     </row>
   </sheetData>

--- a/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/FEB 22/BAJAJ-PL MIS.xlsx
@@ -463,10 +463,10 @@
         <v>10651694.88</v>
       </c>
       <c r="C2" t="n">
-        <v>575058</v>
+        <v>838869</v>
       </c>
       <c r="D2" t="n">
-        <v>5.4</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>17487684.12</v>
       </c>
       <c r="C3" t="n">
-        <v>266418</v>
+        <v>293818</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>10580579</v>
       </c>
       <c r="C4" t="n">
-        <v>197878</v>
+        <v>228878</v>
       </c>
       <c r="D4" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
     </row>
   </sheetData>
